--- a/KhaerulMuhtar/datakhaerulmuhtar.xlsx
+++ b/KhaerulMuhtar/datakhaerulmuhtar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\KhaerulMuhtar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA2DE46-537B-404C-A8AF-E3213733B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C282331D-D918-480B-A8C7-DCCC18019EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{13FE851E-B76A-4530-8680-EB84355C6287}"/>
   </bookViews>
@@ -25,108 +25,363 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>HAERANI</t>
-  </si>
-  <si>
-    <t>5203133112750296</t>
-  </si>
-  <si>
-    <t>H. MUH. JIHAD</t>
-  </si>
-  <si>
-    <t>5203133112550215</t>
-  </si>
-  <si>
-    <t>NUR MUH. JIHAD</t>
-  </si>
-  <si>
-    <t>5203131110000002</t>
-  </si>
-  <si>
-    <t>NASRAH</t>
-  </si>
-  <si>
-    <t>5203115507940003</t>
-  </si>
-  <si>
-    <t>MUH. WIJANI</t>
-  </si>
-  <si>
-    <t>5203133112780125</t>
-  </si>
-  <si>
-    <t>PUSPA WARNI</t>
-  </si>
-  <si>
-    <t>5203137112900105</t>
-  </si>
-  <si>
-    <t>ARLI JADID HARDI</t>
-  </si>
-  <si>
-    <t>5203131205970001</t>
-  </si>
-  <si>
-    <t>AQ. HAMZAWADI</t>
-  </si>
-  <si>
-    <t>5203133112620262</t>
-  </si>
-  <si>
-    <t>ZAHIRUDDIN</t>
-  </si>
-  <si>
-    <t>5203130107840468</t>
-  </si>
-  <si>
-    <t>DEWI PURWANINGSIH</t>
-  </si>
-  <si>
-    <t>5203137112870154</t>
-  </si>
-  <si>
-    <t>ARIFIN</t>
-  </si>
-  <si>
-    <t>5203130107600499</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIPAI</t>
-  </si>
-  <si>
-    <t>5203133110740001</t>
-  </si>
-  <si>
-    <t>ASRUR ROBI'</t>
-  </si>
-  <si>
-    <t>5203130412920002</t>
-  </si>
-  <si>
-    <t>ASRUI</t>
-  </si>
-  <si>
-    <t>5203134805820006</t>
-  </si>
-  <si>
-    <t>MAMIQ MUSTIANI</t>
-  </si>
-  <si>
-    <t>5203133112710184</t>
-  </si>
-  <si>
-    <t>HARIMAH</t>
-  </si>
-  <si>
-    <t>5203134107650496</t>
-  </si>
-  <si>
-    <t>HERMANSAH</t>
-  </si>
-  <si>
-    <t>5203132606880001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+  <si>
+    <t>LINA RESPIANA</t>
+  </si>
+  <si>
+    <t>5203135010970001</t>
+  </si>
+  <si>
+    <t>NURHAYATI</t>
+  </si>
+  <si>
+    <t>5203074107890790</t>
+  </si>
+  <si>
+    <t>JUSMIATUN</t>
+  </si>
+  <si>
+    <t>5203097112910217</t>
+  </si>
+  <si>
+    <t>BUSSARI</t>
+  </si>
+  <si>
+    <t>5203130102870004</t>
+  </si>
+  <si>
+    <t>5203130107840092</t>
+  </si>
+  <si>
+    <t>5203130107850579</t>
+  </si>
+  <si>
+    <t>5203130107870631</t>
+  </si>
+  <si>
+    <t>5203130203810001</t>
+  </si>
+  <si>
+    <t>ABDUL QUDUS</t>
+  </si>
+  <si>
+    <t>5203130207910003</t>
+  </si>
+  <si>
+    <t>HIZBUL</t>
+  </si>
+  <si>
+    <t>5203130304800002</t>
+  </si>
+  <si>
+    <t>5203130501840007</t>
+  </si>
+  <si>
+    <t>MARZUKI</t>
+  </si>
+  <si>
+    <t>5203130507820015</t>
+  </si>
+  <si>
+    <t>GASTALANI</t>
+  </si>
+  <si>
+    <t>5203130706760001</t>
+  </si>
+  <si>
+    <t>HAPIPI</t>
+  </si>
+  <si>
+    <t>5203130803850001</t>
+  </si>
+  <si>
+    <t>5203131002840007</t>
+  </si>
+  <si>
+    <t>5203131008740001</t>
+  </si>
+  <si>
+    <t>5203131011770003</t>
+  </si>
+  <si>
+    <t>5203131103880006</t>
+  </si>
+  <si>
+    <t>5203131111860004</t>
+  </si>
+  <si>
+    <t>5203131202750002</t>
+  </si>
+  <si>
+    <t>5203131205820002</t>
+  </si>
+  <si>
+    <t>5203131207810001</t>
+  </si>
+  <si>
+    <t>MOH. NIRWAN</t>
+  </si>
+  <si>
+    <t>5203131303000004</t>
+  </si>
+  <si>
+    <t>5203131506910005</t>
+  </si>
+  <si>
+    <t>LALU AGUS</t>
+  </si>
+  <si>
+    <t>5203131508990007</t>
+  </si>
+  <si>
+    <t>5203131710830001</t>
+  </si>
+  <si>
+    <t>5203131906850002</t>
+  </si>
+  <si>
+    <t>5203131908840003</t>
+  </si>
+  <si>
+    <t>5203132107820001</t>
+  </si>
+  <si>
+    <t>5203132202710001</t>
+  </si>
+  <si>
+    <t>M. KHATAMI AZIZ</t>
+  </si>
+  <si>
+    <t>5203132206980007</t>
+  </si>
+  <si>
+    <t>5203132506800001</t>
+  </si>
+  <si>
+    <t>5203132607740002</t>
+  </si>
+  <si>
+    <t>SAEPUDDIN</t>
+  </si>
+  <si>
+    <t>5203133012830008</t>
+  </si>
+  <si>
+    <t>NURUDIN</t>
+  </si>
+  <si>
+    <t>5203133112610108</t>
+  </si>
+  <si>
+    <t>MUSTAFA</t>
+  </si>
+  <si>
+    <t>5203133112650180</t>
+  </si>
+  <si>
+    <t>5203133112800333</t>
+  </si>
+  <si>
+    <t>5203133112860026</t>
+  </si>
+  <si>
+    <t>MIFTAHURRAHMAN</t>
+  </si>
+  <si>
+    <t>5203133112880160</t>
+  </si>
+  <si>
+    <t>ANTONI</t>
+  </si>
+  <si>
+    <t>5203133112900137</t>
+  </si>
+  <si>
+    <t>ABDULLATIP</t>
+  </si>
+  <si>
+    <t>5203133112920168</t>
+  </si>
+  <si>
+    <t>5203134103730005</t>
+  </si>
+  <si>
+    <t>MARHANAH</t>
+  </si>
+  <si>
+    <t>5203134107710266</t>
+  </si>
+  <si>
+    <t>5203134107740406</t>
+  </si>
+  <si>
+    <t>SUHARDI</t>
+  </si>
+  <si>
+    <t>5203134107790483</t>
+  </si>
+  <si>
+    <t>5203134107820710</t>
+  </si>
+  <si>
+    <t>5203134107820792</t>
+  </si>
+  <si>
+    <t>5203134107840459</t>
+  </si>
+  <si>
+    <t>5203134107880101</t>
+  </si>
+  <si>
+    <t>BAIK DIANA</t>
+  </si>
+  <si>
+    <t>5203134107920389</t>
+  </si>
+  <si>
+    <t>5203134112840014</t>
+  </si>
+  <si>
+    <t>5203134112890002</t>
+  </si>
+  <si>
+    <t>5203134203780002</t>
+  </si>
+  <si>
+    <t>5203134405950002</t>
+  </si>
+  <si>
+    <t>EVA SUSANTI</t>
+  </si>
+  <si>
+    <t>5203134408920004</t>
+  </si>
+  <si>
+    <t>5203134505830005</t>
+  </si>
+  <si>
+    <t>WARDATUL INTIHAN</t>
+  </si>
+  <si>
+    <t>5203134510790001</t>
+  </si>
+  <si>
+    <t>5203134607950009</t>
+  </si>
+  <si>
+    <t>SAFNI</t>
+  </si>
+  <si>
+    <t>5203134701770002</t>
+  </si>
+  <si>
+    <t>YULIATI</t>
+  </si>
+  <si>
+    <t>5203134703930004</t>
+  </si>
+  <si>
+    <t>5203134712910004</t>
+  </si>
+  <si>
+    <t>5203134811860002</t>
+  </si>
+  <si>
+    <t>5203135111810002</t>
+  </si>
+  <si>
+    <t>KARTINI</t>
+  </si>
+  <si>
+    <t>5203135111830003</t>
+  </si>
+  <si>
+    <t>KJANNATUL MAKWA</t>
+  </si>
+  <si>
+    <t>5203135506030003</t>
+  </si>
+  <si>
+    <t>5203135606940004</t>
+  </si>
+  <si>
+    <t>HIMAYATI</t>
+  </si>
+  <si>
+    <t>5203135712990003</t>
+  </si>
+  <si>
+    <t>SANAWIYAH</t>
+  </si>
+  <si>
+    <t>5203135803840001</t>
+  </si>
+  <si>
+    <t>5203135809860001</t>
+  </si>
+  <si>
+    <t>EMI SURIANA</t>
+  </si>
+  <si>
+    <t>5203136106920003</t>
+  </si>
+  <si>
+    <t>5203136209840003</t>
+  </si>
+  <si>
+    <t>5203136601980002</t>
+  </si>
+  <si>
+    <t>HUSNUDDU'A</t>
+  </si>
+  <si>
+    <t>5203136712870001</t>
+  </si>
+  <si>
+    <t>NURUSSA'ADAH</t>
+  </si>
+  <si>
+    <t>5203136712880002</t>
+  </si>
+  <si>
+    <t>5203136807910002</t>
+  </si>
+  <si>
+    <t>5203136901070004</t>
+  </si>
+  <si>
+    <t>INAQ HAERUDIN</t>
+  </si>
+  <si>
+    <t>5203137112650032</t>
+  </si>
+  <si>
+    <t>HJ. ASBIAH</t>
+  </si>
+  <si>
+    <t>5203137112670198</t>
+  </si>
+  <si>
+    <t>5203137112680059</t>
+  </si>
+  <si>
+    <t>SALUHI</t>
+  </si>
+  <si>
+    <t>5203137112730225</t>
+  </si>
+  <si>
+    <t>5203137112760142</t>
+  </si>
+  <si>
+    <t>5203137112820150</t>
+  </si>
+  <si>
+    <t>5203137112950075</t>
+  </si>
+  <si>
+    <t>5203137112980055</t>
   </si>
 </sst>
 </file>
@@ -183,17 +438,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -503,32 +773,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD206EC6-3673-4D55-BE5A-BB8FABA5B354}">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -539,7 +809,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -550,7 +820,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -561,148 +831,762 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>92</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>93</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>73</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
+        <v>62</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>89</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>81</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>74</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>78</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>68</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>42</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>59</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>91</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>70</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>53</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>76</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>94</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>61</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>75</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>65</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>71</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>57</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>67</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>90</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>26</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>34</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>46</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>86</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>43</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>27</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>29</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>69</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>20</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>48</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>25</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>55</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>41</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>77</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>58</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>13</v>
       </c>
+      <c r="B79" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>31</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>85</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>38</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>63</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C85">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KhaerulMuhtar/datakhaerulmuhtar.xlsx
+++ b/KhaerulMuhtar/datakhaerulmuhtar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\KhaerulMuhtar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66CAC97-6231-4907-A422-1E70BD9676D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F802E4C-B931-449E-9A6A-DF67FB20AEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{13FE851E-B76A-4530-8680-EB84355C6287}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{13FE851E-B76A-4530-8680-EB84355C6287}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>ABDULLATIP</t>
-  </si>
-  <si>
-    <t>5203133112920168</t>
-  </si>
-  <si>
-    <t>5203137112820150</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>5203137112950075</t>
   </si>
@@ -42,82 +33,67 @@
     <t>5203137112980055</t>
   </si>
   <si>
-    <t>DOWENTA ANUGERAH</t>
-  </si>
-  <si>
-    <t>5203091110060006</t>
-  </si>
-  <si>
-    <t>HADI SUHARSA</t>
-  </si>
-  <si>
-    <t>5203091805750003</t>
-  </si>
-  <si>
-    <t>MARSHA ALIFANABIL</t>
-  </si>
-  <si>
-    <t>5203095710040004</t>
-  </si>
-  <si>
-    <t>AMAQ MASITAH</t>
-  </si>
-  <si>
-    <t>5203093112540028</t>
-  </si>
-  <si>
-    <t>SAHARUDIN</t>
-  </si>
-  <si>
-    <t>5203092706810001</t>
-  </si>
-  <si>
-    <t>SAHRAH</t>
-  </si>
-  <si>
-    <t>5203094107770925</t>
-  </si>
-  <si>
-    <t>M. TEZAR ZAMAN</t>
-  </si>
-  <si>
-    <t>5203090606030001</t>
-  </si>
-  <si>
-    <t>IKA AZINDA</t>
-  </si>
-  <si>
-    <t>5203094107810602</t>
-  </si>
-  <si>
-    <t>SUHERMAN</t>
-  </si>
-  <si>
-    <t>5203093112850194</t>
-  </si>
-  <si>
-    <t>MURNIATI</t>
-  </si>
-  <si>
-    <t>5203094810870003</t>
-  </si>
-  <si>
-    <t>JALALUDIN</t>
-  </si>
-  <si>
-    <t>5203093112760264</t>
-  </si>
-  <si>
-    <t>AMAQ. MUSTAKIM</t>
-  </si>
-  <si>
-    <t>5203093112710212</t>
-  </si>
-  <si>
-    <t>KAPTIAH</t>
-  </si>
-  <si>
-    <t>5203095006780008</t>
+    <t>SANAWIYAH</t>
+  </si>
+  <si>
+    <t>5203135803840001</t>
+  </si>
+  <si>
+    <t>5203135809860001</t>
+  </si>
+  <si>
+    <t>EMI SURIANA</t>
+  </si>
+  <si>
+    <t>5203136106920003</t>
+  </si>
+  <si>
+    <t>5203136209840003</t>
+  </si>
+  <si>
+    <t>5203136601980002</t>
+  </si>
+  <si>
+    <t>HUSNUDDU'A</t>
+  </si>
+  <si>
+    <t>5203136712870001</t>
+  </si>
+  <si>
+    <t>NURUSSA'ADAH</t>
+  </si>
+  <si>
+    <t>5203136712880002</t>
+  </si>
+  <si>
+    <t>5203136807910002</t>
+  </si>
+  <si>
+    <t>5203136901070004</t>
+  </si>
+  <si>
+    <t>INAQ HAERUDIN</t>
+  </si>
+  <si>
+    <t>5203137112650032</t>
+  </si>
+  <si>
+    <t>HJ. ASBIAH</t>
+  </si>
+  <si>
+    <t>5203137112670198</t>
+  </si>
+  <si>
+    <t>5203137112680059</t>
+  </si>
+  <si>
+    <t>SALUHI</t>
+  </si>
+  <si>
+    <t>5203137112730225</t>
+  </si>
+  <si>
+    <t>5203137112760142</t>
   </si>
 </sst>
 </file>
@@ -135,9 +111,8 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -156,29 +131,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,199 +465,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD206EC6-3673-4D55-BE5A-BB8FABA5B354}">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>77</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KhaerulMuhtar/datakhaerulmuhtar.xlsx
+++ b/KhaerulMuhtar/datakhaerulmuhtar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\KhaerulMuhtar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F802E4C-B931-449E-9A6A-DF67FB20AEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C794A2C8-B343-47C4-B06E-99662898311E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{13FE851E-B76A-4530-8680-EB84355C6287}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13FE851E-B76A-4530-8680-EB84355C6287}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>5203137112950075</t>
   </si>
@@ -94,6 +94,285 @@
   </si>
   <si>
     <t>5203137112760142</t>
+  </si>
+  <si>
+    <t>LINA RESPIANA</t>
+  </si>
+  <si>
+    <t>5203135010970001</t>
+  </si>
+  <si>
+    <t>NURHAYATI</t>
+  </si>
+  <si>
+    <t>5203074107890790</t>
+  </si>
+  <si>
+    <t>JUSMIATUN</t>
+  </si>
+  <si>
+    <t>5203097112910217</t>
+  </si>
+  <si>
+    <t>BUSSARI</t>
+  </si>
+  <si>
+    <t>5203130102870004</t>
+  </si>
+  <si>
+    <t>5203130107840092</t>
+  </si>
+  <si>
+    <t>5203130107850579</t>
+  </si>
+  <si>
+    <t>5203130107870631</t>
+  </si>
+  <si>
+    <t>5203130203810001</t>
+  </si>
+  <si>
+    <t>ABDUL QUDUS</t>
+  </si>
+  <si>
+    <t>5203130207910003</t>
+  </si>
+  <si>
+    <t>HIZBUL</t>
+  </si>
+  <si>
+    <t>5203130304800002</t>
+  </si>
+  <si>
+    <t>5203130501840007</t>
+  </si>
+  <si>
+    <t>MARZUKI</t>
+  </si>
+  <si>
+    <t>5203130507820015</t>
+  </si>
+  <si>
+    <t>GASTALANI</t>
+  </si>
+  <si>
+    <t>5203130706760001</t>
+  </si>
+  <si>
+    <t>HAPIPI</t>
+  </si>
+  <si>
+    <t>5203130803850001</t>
+  </si>
+  <si>
+    <t>5203131002840007</t>
+  </si>
+  <si>
+    <t>5203131008740001</t>
+  </si>
+  <si>
+    <t>5203131011770003</t>
+  </si>
+  <si>
+    <t>5203131103880006</t>
+  </si>
+  <si>
+    <t>5203131111860004</t>
+  </si>
+  <si>
+    <t>5203131202750002</t>
+  </si>
+  <si>
+    <t>5203131205820002</t>
+  </si>
+  <si>
+    <t>5203131207810001</t>
+  </si>
+  <si>
+    <t>MOH. NIRWAN</t>
+  </si>
+  <si>
+    <t>5203131303000004</t>
+  </si>
+  <si>
+    <t>5203131506910005</t>
+  </si>
+  <si>
+    <t>LALU AGUS</t>
+  </si>
+  <si>
+    <t>5203131508990007</t>
+  </si>
+  <si>
+    <t>5203131710830001</t>
+  </si>
+  <si>
+    <t>5203131906850002</t>
+  </si>
+  <si>
+    <t>5203131908840003</t>
+  </si>
+  <si>
+    <t>5203132107820001</t>
+  </si>
+  <si>
+    <t>5203132202710001</t>
+  </si>
+  <si>
+    <t>M. KHATAMI AZIZ</t>
+  </si>
+  <si>
+    <t>5203132206980007</t>
+  </si>
+  <si>
+    <t>5203132506800001</t>
+  </si>
+  <si>
+    <t>5203132607740002</t>
+  </si>
+  <si>
+    <t>SAEPUDDIN</t>
+  </si>
+  <si>
+    <t>5203133012830008</t>
+  </si>
+  <si>
+    <t>NURUDIN</t>
+  </si>
+  <si>
+    <t>5203133112610108</t>
+  </si>
+  <si>
+    <t>MUSTAFA</t>
+  </si>
+  <si>
+    <t>5203133112650180</t>
+  </si>
+  <si>
+    <t>5203133112800333</t>
+  </si>
+  <si>
+    <t>5203133112860026</t>
+  </si>
+  <si>
+    <t>MIFTAHURRAHMAN</t>
+  </si>
+  <si>
+    <t>5203133112880160</t>
+  </si>
+  <si>
+    <t>ANTONI</t>
+  </si>
+  <si>
+    <t>5203133112900137</t>
+  </si>
+  <si>
+    <t>5203134103730005</t>
+  </si>
+  <si>
+    <t>MARHANAH</t>
+  </si>
+  <si>
+    <t>5203134107710266</t>
+  </si>
+  <si>
+    <t>5203134107740406</t>
+  </si>
+  <si>
+    <t>SUHARDI</t>
+  </si>
+  <si>
+    <t>5203134107790483</t>
+  </si>
+  <si>
+    <t>5203134107820710</t>
+  </si>
+  <si>
+    <t>5203134107820792</t>
+  </si>
+  <si>
+    <t>5203134107840459</t>
+  </si>
+  <si>
+    <t>5203134107880101</t>
+  </si>
+  <si>
+    <t>BAIK DIANA</t>
+  </si>
+  <si>
+    <t>5203134107920389</t>
+  </si>
+  <si>
+    <t>5203134112840014</t>
+  </si>
+  <si>
+    <t>5203134112890002</t>
+  </si>
+  <si>
+    <t>5203134203780002</t>
+  </si>
+  <si>
+    <t>5203134405950002</t>
+  </si>
+  <si>
+    <t>EVA SUSANTI</t>
+  </si>
+  <si>
+    <t>5203134408920004</t>
+  </si>
+  <si>
+    <t>5203134505830005</t>
+  </si>
+  <si>
+    <t>WARDATUL INTIHAN</t>
+  </si>
+  <si>
+    <t>5203134510790001</t>
+  </si>
+  <si>
+    <t>5203134607950009</t>
+  </si>
+  <si>
+    <t>SAFNI</t>
+  </si>
+  <si>
+    <t>5203134701770002</t>
+  </si>
+  <si>
+    <t>YULIATI</t>
+  </si>
+  <si>
+    <t>5203134703930004</t>
+  </si>
+  <si>
+    <t>5203134712910004</t>
+  </si>
+  <si>
+    <t>5203134811860002</t>
+  </si>
+  <si>
+    <t>5203135111810002</t>
+  </si>
+  <si>
+    <t>KARTINI</t>
+  </si>
+  <si>
+    <t>5203135111830003</t>
+  </si>
+  <si>
+    <t>KJANNATUL MAKWA</t>
+  </si>
+  <si>
+    <t>5203135506030003</t>
+  </si>
+  <si>
+    <t>5203135606940004</t>
+  </si>
+  <si>
+    <t>HIMAYATI</t>
+  </si>
+  <si>
+    <t>5203135712990003</t>
   </si>
 </sst>
 </file>
@@ -123,7 +402,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,15 +410,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD206EC6-3673-4D55-BE5A-BB8FABA5B354}">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A2:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,156 +778,786 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>71</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>73</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>75</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>76</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>77</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>78</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>79</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C17">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  <conditionalFormatting sqref="C2:C83">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
